--- a/data/pca/factorExposure/factorExposure_2009-11-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.004335285404301962</v>
+        <v>0.01664923004229537</v>
       </c>
       <c r="C2">
-        <v>0.01014313758510294</v>
+        <v>-0.0009997985747835008</v>
       </c>
       <c r="D2">
-        <v>-0.0005755943901213129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007696206334300172</v>
+      </c>
+      <c r="E2">
+        <v>0.0004261348665182581</v>
+      </c>
+      <c r="F2">
+        <v>0.01159097944069101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03670357295678763</v>
+        <v>0.09372227942012365</v>
       </c>
       <c r="C4">
-        <v>0.1109734609466407</v>
+        <v>-0.01531785694412989</v>
       </c>
       <c r="D4">
-        <v>-0.03137649653998522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08358708395431733</v>
+      </c>
+      <c r="E4">
+        <v>0.02815340575846559</v>
+      </c>
+      <c r="F4">
+        <v>-0.0308482755345557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.05030205955349043</v>
+        <v>0.1577585938621979</v>
       </c>
       <c r="C6">
-        <v>0.1223476822224094</v>
+        <v>-0.02541568302186389</v>
       </c>
       <c r="D6">
-        <v>0.04802283213240367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02101136029613433</v>
+      </c>
+      <c r="E6">
+        <v>0.01189985997572713</v>
+      </c>
+      <c r="F6">
+        <v>-0.04593033666123014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.015007547878945</v>
+        <v>0.06273009167692334</v>
       </c>
       <c r="C7">
-        <v>0.08180694891824222</v>
+        <v>0.001647176887625675</v>
       </c>
       <c r="D7">
-        <v>-0.006726884063575388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0530348015547558</v>
+      </c>
+      <c r="E7">
+        <v>0.009711575602919392</v>
+      </c>
+      <c r="F7">
+        <v>-0.04777080248204086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001818322769361901</v>
+        <v>0.05714013398628449</v>
       </c>
       <c r="C8">
-        <v>0.06576817543012232</v>
+        <v>0.01367015441221398</v>
       </c>
       <c r="D8">
-        <v>0.01680494402093642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03355069973587443</v>
+      </c>
+      <c r="E8">
+        <v>0.01733838712863554</v>
+      </c>
+      <c r="F8">
+        <v>0.02800774830649296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03145141833343364</v>
+        <v>0.07118936718387517</v>
       </c>
       <c r="C9">
-        <v>0.09474063375159365</v>
+        <v>-0.01084438401286552</v>
       </c>
       <c r="D9">
-        <v>-0.03483911051424932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0861324558367441</v>
+      </c>
+      <c r="E9">
+        <v>0.02284204555186154</v>
+      </c>
+      <c r="F9">
+        <v>-0.04754988472663901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01575346919093778</v>
+        <v>0.09498368108102939</v>
       </c>
       <c r="C10">
-        <v>0.02664747977364032</v>
+        <v>-0.02069865618170429</v>
       </c>
       <c r="D10">
-        <v>0.1177375203161581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1701991323113181</v>
+      </c>
+      <c r="E10">
+        <v>-0.03566613936521809</v>
+      </c>
+      <c r="F10">
+        <v>0.05468256992962623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0345163295125599</v>
+        <v>0.0875802295029315</v>
       </c>
       <c r="C11">
-        <v>0.09665676484028639</v>
+        <v>-0.01040398657497944</v>
       </c>
       <c r="D11">
-        <v>-0.04922233946287987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1168294177856407</v>
+      </c>
+      <c r="E11">
+        <v>0.04623934646343876</v>
+      </c>
+      <c r="F11">
+        <v>-0.02175508071366625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03410235037988163</v>
+        <v>0.09235763026919871</v>
       </c>
       <c r="C12">
-        <v>0.1072922709051514</v>
+        <v>-0.007725373050252705</v>
       </c>
       <c r="D12">
-        <v>-0.04912865234338361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1312563192157879</v>
+      </c>
+      <c r="E12">
+        <v>0.04744175057246572</v>
+      </c>
+      <c r="F12">
+        <v>-0.02603500368189572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01184935475659719</v>
+        <v>0.04163846190367879</v>
       </c>
       <c r="C13">
-        <v>0.03603618867076246</v>
+        <v>-0.00308274601569007</v>
       </c>
       <c r="D13">
-        <v>-0.03248123076617868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05183206445335294</v>
+      </c>
+      <c r="E13">
+        <v>-0.008547186827688763</v>
+      </c>
+      <c r="F13">
+        <v>-0.002915244411207485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01978271669597072</v>
+        <v>0.02263916282999903</v>
       </c>
       <c r="C14">
-        <v>0.02606921822368043</v>
+        <v>-0.01364106190426112</v>
       </c>
       <c r="D14">
-        <v>0.0006060601679665815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03306950032953786</v>
+      </c>
+      <c r="E14">
+        <v>0.01730856416546076</v>
+      </c>
+      <c r="F14">
+        <v>-0.01352793725675904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01424451595149357</v>
+        <v>0.03306517885282168</v>
       </c>
       <c r="C15">
-        <v>0.03238102729163802</v>
+        <v>-0.004761877516700432</v>
       </c>
       <c r="D15">
-        <v>-0.008865706986141959</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04493269625005842</v>
+      </c>
+      <c r="E15">
+        <v>0.005789889261086204</v>
+      </c>
+      <c r="F15">
+        <v>-0.02318804253871425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.02455543958764127</v>
+        <v>0.07424393755378149</v>
       </c>
       <c r="C16">
-        <v>0.09848546551036926</v>
+        <v>-0.001553013275420597</v>
       </c>
       <c r="D16">
-        <v>-0.03968842207235859</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1253482083870433</v>
+      </c>
+      <c r="E16">
+        <v>0.06153081173762754</v>
+      </c>
+      <c r="F16">
+        <v>-0.0239054832311375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03219930649126051</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003401418353140822</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01938919269690566</v>
+      </c>
+      <c r="E18">
+        <v>-0.007392286905179661</v>
+      </c>
+      <c r="F18">
+        <v>0.004256810708592644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01651187354266195</v>
+        <v>0.06078164814092753</v>
       </c>
       <c r="C20">
-        <v>0.05671854195018041</v>
+        <v>-0.000222732976168645</v>
       </c>
       <c r="D20">
-        <v>-0.008304638253029288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0772088028828105</v>
+      </c>
+      <c r="E20">
+        <v>0.05538529191743313</v>
+      </c>
+      <c r="F20">
+        <v>-0.02233875500596159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01556413115398972</v>
+        <v>0.04056100485548528</v>
       </c>
       <c r="C21">
-        <v>0.022017234743131</v>
+        <v>-0.006406861088446733</v>
       </c>
       <c r="D21">
-        <v>-0.004964381791855647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03738602092530237</v>
+      </c>
+      <c r="E21">
+        <v>-0.005715090165045783</v>
+      </c>
+      <c r="F21">
+        <v>0.02402867176163829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.006872768439463524</v>
+        <v>0.04350047163926777</v>
       </c>
       <c r="C22">
-        <v>0.03230694440988333</v>
+        <v>-0.0006716935828005292</v>
       </c>
       <c r="D22">
-        <v>0.03283295831494928</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004473736724471229</v>
+      </c>
+      <c r="E22">
+        <v>0.03037890527417925</v>
+      </c>
+      <c r="F22">
+        <v>0.0369149079048905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.006859110075327132</v>
+        <v>0.04348606697900404</v>
       </c>
       <c r="C23">
-        <v>0.03225156713119773</v>
+        <v>-0.0006673513730033556</v>
       </c>
       <c r="D23">
-        <v>0.03290422567968892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004478377095820715</v>
+      </c>
+      <c r="E23">
+        <v>0.03058044648343808</v>
+      </c>
+      <c r="F23">
+        <v>0.03687877399620852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02535779183877179</v>
+        <v>0.08009266370845958</v>
       </c>
       <c r="C24">
-        <v>0.1048943406854539</v>
+        <v>-0.001992764764715067</v>
       </c>
       <c r="D24">
-        <v>-0.04473015735152811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1208680615050042</v>
+      </c>
+      <c r="E24">
+        <v>0.04897274903360812</v>
+      </c>
+      <c r="F24">
+        <v>-0.02603760926199033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02922128619582172</v>
+        <v>0.08479142337281181</v>
       </c>
       <c r="C25">
-        <v>0.1010163316002709</v>
+        <v>-0.0042964391280502</v>
       </c>
       <c r="D25">
-        <v>-0.05019103033689099</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094766824496472</v>
+      </c>
+      <c r="E25">
+        <v>0.0325763336589312</v>
+      </c>
+      <c r="F25">
+        <v>-0.02645271524372906</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02694138481394732</v>
+        <v>0.05808160801289881</v>
       </c>
       <c r="C26">
-        <v>0.04567729147074576</v>
+        <v>-0.01436277966682192</v>
       </c>
       <c r="D26">
-        <v>0.005041918317542408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04025390234486365</v>
+      </c>
+      <c r="E26">
+        <v>0.02854638522446597</v>
+      </c>
+      <c r="F26">
+        <v>0.009402462461800624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.01686236489306928</v>
+        <v>0.1403503921860743</v>
       </c>
       <c r="C28">
-        <v>0.05717258898477921</v>
+        <v>-0.02021243947101095</v>
       </c>
       <c r="D28">
-        <v>0.2107843090632779</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2615493210754831</v>
+      </c>
+      <c r="E28">
+        <v>-0.06759086817066458</v>
+      </c>
+      <c r="F28">
+        <v>-0.01000660879794026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01542626869400477</v>
+        <v>0.02765229676514119</v>
       </c>
       <c r="C29">
-        <v>0.02515621169744867</v>
+        <v>-0.008211182229189477</v>
       </c>
       <c r="D29">
-        <v>0.002631854520533005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03184429031712464</v>
+      </c>
+      <c r="E29">
+        <v>0.01114573470392091</v>
+      </c>
+      <c r="F29">
+        <v>0.01180372990507504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.02555177882491626</v>
+        <v>0.06114095498407706</v>
       </c>
       <c r="C30">
-        <v>0.124670578300903</v>
+        <v>-0.003166444387343426</v>
       </c>
       <c r="D30">
-        <v>-0.03160544429765964</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08909897502029521</v>
+      </c>
+      <c r="E30">
+        <v>0.01933809326872979</v>
+      </c>
+      <c r="F30">
+        <v>-0.08293214786954858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02328524982744442</v>
+        <v>0.05006229976518874</v>
       </c>
       <c r="C31">
-        <v>0.03390988974358502</v>
+        <v>-0.01517111758273784</v>
       </c>
       <c r="D31">
-        <v>-0.004817037605442415</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02472194784222786</v>
+      </c>
+      <c r="E31">
+        <v>0.02744691927429149</v>
+      </c>
+      <c r="F31">
+        <v>0.002177729715822448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.01231998132892456</v>
+        <v>0.05007986479629942</v>
       </c>
       <c r="C32">
-        <v>0.06306925066157476</v>
+        <v>0.001626923417415375</v>
       </c>
       <c r="D32">
-        <v>0.01397512268907416</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03686991302573376</v>
+      </c>
+      <c r="E32">
+        <v>0.03168248105426855</v>
+      </c>
+      <c r="F32">
+        <v>-0.003174708739691485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.03070534979308239</v>
+        <v>0.08953177193633031</v>
       </c>
       <c r="C33">
-        <v>0.1057481558088957</v>
+        <v>-0.007525588222469027</v>
       </c>
       <c r="D33">
-        <v>-0.03305379792397765</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09923238847340596</v>
+      </c>
+      <c r="E33">
+        <v>0.04366831232445533</v>
+      </c>
+      <c r="F33">
+        <v>-0.03551693599901631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.03178033298717316</v>
+        <v>0.06759035485695496</v>
       </c>
       <c r="C34">
-        <v>0.09164169179168628</v>
+        <v>-0.01041787304106767</v>
       </c>
       <c r="D34">
-        <v>-0.04624018429198749</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1077823086488798</v>
+      </c>
+      <c r="E34">
+        <v>0.03448141637362289</v>
+      </c>
+      <c r="F34">
+        <v>-0.03332917278008207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.006325007899154858</v>
+        <v>0.0244035143429573</v>
       </c>
       <c r="C35">
-        <v>0.01899461842952544</v>
+        <v>-0.002424141757045874</v>
       </c>
       <c r="D35">
-        <v>-5.511991646059184e-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01131579875704317</v>
+      </c>
+      <c r="E35">
+        <v>0.0114920723130327</v>
+      </c>
+      <c r="F35">
+        <v>-0.0006121314672715559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01423568832655451</v>
+        <v>0.02781710868031396</v>
       </c>
       <c r="C36">
-        <v>0.02671147431030721</v>
+        <v>-0.007063908602516014</v>
       </c>
       <c r="D36">
-        <v>-0.01033391698466832</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03951337073182262</v>
+      </c>
+      <c r="E36">
+        <v>0.01654690619329205</v>
+      </c>
+      <c r="F36">
+        <v>-0.01467977914285014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003606331075203552</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>9.241573940152368e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004089693637035996</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004623101676531148</v>
+      </c>
+      <c r="F37">
+        <v>-0.0005870154347993982</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0007233154271626192</v>
+        <v>0.001440677858871508</v>
       </c>
       <c r="C38">
-        <v>0.003654743230470042</v>
+        <v>-0.0002405636912549421</v>
       </c>
       <c r="D38">
-        <v>0.002443883383312072</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0003019060458760211</v>
+      </c>
+      <c r="E38">
+        <v>0.0003789314516498418</v>
+      </c>
+      <c r="F38">
+        <v>0.0009432934753250809</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04832726798774812</v>
+        <v>0.1052553805427073</v>
       </c>
       <c r="C39">
-        <v>0.1487985424750032</v>
+        <v>-0.01568245652163155</v>
       </c>
       <c r="D39">
-        <v>-0.07977253399601658</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1539206311102414</v>
+      </c>
+      <c r="E39">
+        <v>0.05894832831187963</v>
+      </c>
+      <c r="F39">
+        <v>-0.02927203425368914</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01216820260527245</v>
+        <v>0.04189188804837257</v>
       </c>
       <c r="C40">
-        <v>0.009430218622833584</v>
+        <v>-0.00667614011288632</v>
       </c>
       <c r="D40">
-        <v>0.00441448730492607</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03168661960069617</v>
+      </c>
+      <c r="E40">
+        <v>0.00279875740457897</v>
+      </c>
+      <c r="F40">
+        <v>0.0159896764507254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01244072222897928</v>
+        <v>0.02806173723240555</v>
       </c>
       <c r="C41">
-        <v>0.01745253753030925</v>
+        <v>-0.006814935220206065</v>
       </c>
       <c r="D41">
-        <v>0.01217908202495527</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01012446633325125</v>
+      </c>
+      <c r="E41">
+        <v>0.01243608765776393</v>
+      </c>
+      <c r="F41">
+        <v>0.006368856030546176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01470289242945</v>
+        <v>0.04069542480106121</v>
       </c>
       <c r="C43">
-        <v>0.02612114255026684</v>
+        <v>-0.006811835298709499</v>
       </c>
       <c r="D43">
-        <v>0.005262195678257227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01958799039070865</v>
+      </c>
+      <c r="E43">
+        <v>0.0246605264560111</v>
+      </c>
+      <c r="F43">
+        <v>0.01290343410524418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.04392133410657133</v>
+        <v>0.07948005679977718</v>
       </c>
       <c r="C44">
-        <v>0.1225094737471705</v>
+        <v>-0.01981968911026985</v>
       </c>
       <c r="D44">
-        <v>-0.02378002952252868</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09800892105463639</v>
+      </c>
+      <c r="E44">
+        <v>0.06491678231708947</v>
+      </c>
+      <c r="F44">
+        <v>-0.1558963555804947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005759983872642587</v>
+        <v>0.02315510109835926</v>
       </c>
       <c r="C46">
-        <v>0.006488228952710601</v>
+        <v>-0.003297514501768615</v>
       </c>
       <c r="D46">
-        <v>0.01499094762349197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01310934361862684</v>
+      </c>
+      <c r="E46">
+        <v>0.02193189991585057</v>
+      </c>
+      <c r="F46">
+        <v>0.006391724281489699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01253497121376917</v>
+        <v>0.05124445246734115</v>
       </c>
       <c r="C47">
-        <v>0.02904193289409657</v>
+        <v>-0.003403539419602052</v>
       </c>
       <c r="D47">
-        <v>0.02354863594052199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0137839324669338</v>
+      </c>
+      <c r="E47">
+        <v>0.02333001071347138</v>
+      </c>
+      <c r="F47">
+        <v>0.03371797521157078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01476055156074234</v>
+        <v>0.04992418708658936</v>
       </c>
       <c r="C48">
-        <v>0.0479241963290825</v>
+        <v>-0.002405741196669574</v>
       </c>
       <c r="D48">
-        <v>-0.02458363536207119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04989373344867955</v>
+      </c>
+      <c r="E48">
+        <v>-0.006156052490961697</v>
+      </c>
+      <c r="F48">
+        <v>-0.009416606520784729</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.05560542468552151</v>
+        <v>0.2003434388760935</v>
       </c>
       <c r="C49">
-        <v>0.2203174955119422</v>
+        <v>-0.01880087394490863</v>
       </c>
       <c r="D49">
-        <v>0.05644419806070295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.008054513081947996</v>
+      </c>
+      <c r="E49">
+        <v>0.03078422018751254</v>
+      </c>
+      <c r="F49">
+        <v>-0.03923274841426073</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.02072528212215371</v>
+        <v>0.05057214540787033</v>
       </c>
       <c r="C50">
-        <v>0.03729529021325133</v>
+        <v>-0.01115513271274328</v>
       </c>
       <c r="D50">
-        <v>0.002425692481793525</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02376471583052115</v>
+      </c>
+      <c r="E50">
+        <v>0.02962454601175085</v>
+      </c>
+      <c r="F50">
+        <v>-0.009168071043513871</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0002808119405077706</v>
+        <v>0.0004569522076758345</v>
       </c>
       <c r="C51">
-        <v>0.001057011061911487</v>
+        <v>-0.000126079485087647</v>
       </c>
       <c r="D51">
-        <v>0.001010020819001522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0002225965392714359</v>
+      </c>
+      <c r="E51">
+        <v>-1.327654762016069e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.001834774172285701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.04115138694767546</v>
+        <v>0.1462630668743122</v>
       </c>
       <c r="C52">
-        <v>0.1489957859263384</v>
+        <v>-0.01575520595656218</v>
       </c>
       <c r="D52">
-        <v>-0.02177289265946756</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04465837829507611</v>
+      </c>
+      <c r="E52">
+        <v>0.02060559185593355</v>
+      </c>
+      <c r="F52">
+        <v>-0.0417263851611707</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.04509290477171123</v>
+        <v>0.1719191341785228</v>
       </c>
       <c r="C53">
-        <v>0.1713336642915779</v>
+        <v>-0.0188099130644622</v>
       </c>
       <c r="D53">
-        <v>0.01350873019631697</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006734446334079615</v>
+      </c>
+      <c r="E53">
+        <v>0.03200456834523564</v>
+      </c>
+      <c r="F53">
+        <v>-0.07279461297092951</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01752892863413211</v>
+        <v>0.02234751882768669</v>
       </c>
       <c r="C54">
-        <v>0.03175652846057885</v>
+        <v>-0.01215330480135817</v>
       </c>
       <c r="D54">
-        <v>-0.00366297684169021</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03454160681975093</v>
+      </c>
+      <c r="E54">
+        <v>0.01870525516625498</v>
+      </c>
+      <c r="F54">
+        <v>0.004055389186133924</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.03162920077790948</v>
+        <v>0.1140230347243295</v>
       </c>
       <c r="C55">
-        <v>0.09171743737995705</v>
+        <v>-0.01644521892697358</v>
       </c>
       <c r="D55">
-        <v>-0.003174447780238048</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009643483827363448</v>
+      </c>
+      <c r="E55">
+        <v>0.02828050629054116</v>
+      </c>
+      <c r="F55">
+        <v>-0.04763681357500803</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.04128142541362843</v>
+        <v>0.1768385752423153</v>
       </c>
       <c r="C56">
-        <v>0.1605699656802616</v>
+        <v>-0.01637557043555424</v>
       </c>
       <c r="D56">
-        <v>0.01522300431332334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007443996532756631</v>
+      </c>
+      <c r="E56">
+        <v>0.03568297865879305</v>
+      </c>
+      <c r="F56">
+        <v>-0.05155978940541499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01590347470433099</v>
+        <v>0.04605087928958195</v>
       </c>
       <c r="C58">
-        <v>0.04977186792501696</v>
+        <v>-0.0004024137577847732</v>
       </c>
       <c r="D58">
-        <v>-0.01797727451021854</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06769449981128531</v>
+      </c>
+      <c r="E58">
+        <v>0.02712613803256325</v>
+      </c>
+      <c r="F58">
+        <v>0.03672815632244292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.02594058768539523</v>
+        <v>0.1683471008551897</v>
       </c>
       <c r="C59">
-        <v>0.1123194960957426</v>
+        <v>-0.02081898959096479</v>
       </c>
       <c r="D59">
-        <v>0.2165562173098892</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2184038092428839</v>
+      </c>
+      <c r="E59">
+        <v>-0.04638924685192903</v>
+      </c>
+      <c r="F59">
+        <v>0.03430860266359802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.04373970420932444</v>
+        <v>0.2317523813611153</v>
       </c>
       <c r="C60">
-        <v>0.2666154655743962</v>
+        <v>0.002779485801400772</v>
       </c>
       <c r="D60">
-        <v>-0.002183963978510111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04212810975731234</v>
+      </c>
+      <c r="E60">
+        <v>0.01128589104414892</v>
+      </c>
+      <c r="F60">
+        <v>0.006145108767283127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03585235759123055</v>
+        <v>0.08163794823981385</v>
       </c>
       <c r="C61">
-        <v>0.1199849122918132</v>
+        <v>-0.01159584984871772</v>
       </c>
       <c r="D61">
-        <v>-0.03657660582511427</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1168608005004362</v>
+      </c>
+      <c r="E61">
+        <v>0.03881580138395781</v>
+      </c>
+      <c r="F61">
+        <v>-0.01099663144022691</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.04464720673308455</v>
+        <v>0.1704072760991158</v>
       </c>
       <c r="C62">
-        <v>0.1619810442094484</v>
+        <v>-0.01973079018882913</v>
       </c>
       <c r="D62">
-        <v>0.005731783256716323</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006798296327772857</v>
+      </c>
+      <c r="E62">
+        <v>0.03544811565368727</v>
+      </c>
+      <c r="F62">
+        <v>-0.03330208926338905</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01426695630042401</v>
+        <v>0.04586794512654042</v>
       </c>
       <c r="C63">
-        <v>0.04904164237847421</v>
+        <v>-0.00189478983769268</v>
       </c>
       <c r="D63">
-        <v>-0.02284193090307342</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05826861528266616</v>
+      </c>
+      <c r="E63">
+        <v>0.0214952418313257</v>
+      </c>
+      <c r="F63">
+        <v>-0.005049225723958131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.03119232689656212</v>
+        <v>0.1104045915687516</v>
       </c>
       <c r="C64">
-        <v>0.09416576005249973</v>
+        <v>-0.01100977023671313</v>
       </c>
       <c r="D64">
-        <v>0.001800891053080709</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04351885903693168</v>
+      </c>
+      <c r="E64">
+        <v>0.02486726882838134</v>
+      </c>
+      <c r="F64">
+        <v>-0.02575833745276719</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.0527193622166346</v>
+        <v>0.1475244944120422</v>
       </c>
       <c r="C65">
-        <v>0.1185265990596586</v>
+        <v>-0.03259003239358448</v>
       </c>
       <c r="D65">
-        <v>0.03644488964914635</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04028138376613998</v>
+      </c>
+      <c r="E65">
+        <v>0.005167386128390328</v>
+      </c>
+      <c r="F65">
+        <v>-0.03998276708554202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04923072403773717</v>
+        <v>0.1246199704988342</v>
       </c>
       <c r="C66">
-        <v>0.1755228230545818</v>
+        <v>-0.01374633043848866</v>
       </c>
       <c r="D66">
-        <v>-0.07125326835289852</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1424408143201786</v>
+      </c>
+      <c r="E66">
+        <v>0.06632489438888478</v>
+      </c>
+      <c r="F66">
+        <v>-0.03137083339514152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01784563138296804</v>
+        <v>0.06056064342337065</v>
       </c>
       <c r="C67">
-        <v>0.07198595696388706</v>
+        <v>-0.003215656747341223</v>
       </c>
       <c r="D67">
-        <v>-0.003849470727179944</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05551356575117054</v>
+      </c>
+      <c r="E67">
+        <v>0.01759840658171701</v>
+      </c>
+      <c r="F67">
+        <v>0.03427156580504657</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.02348581094033106</v>
+        <v>0.1163362849533286</v>
       </c>
       <c r="C68">
-        <v>0.03517367029647289</v>
+        <v>-0.03104774775885847</v>
       </c>
       <c r="D68">
-        <v>0.1789996934743744</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2602611826552996</v>
+      </c>
+      <c r="E68">
+        <v>-0.08640897704574269</v>
+      </c>
+      <c r="F68">
+        <v>-0.005809020845219376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.008393437115050929</v>
+        <v>0.03988414611055092</v>
       </c>
       <c r="C69">
-        <v>0.03660219190084576</v>
+        <v>-0.001391368676889867</v>
       </c>
       <c r="D69">
-        <v>0.02038309741514352</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.006919683398783559</v>
+      </c>
+      <c r="E69">
+        <v>0.02265669079616526</v>
+      </c>
+      <c r="F69">
+        <v>0.0007199656808358822</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.01492153642524943</v>
+        <v>0.06565723243243456</v>
       </c>
       <c r="C70">
-        <v>0.01554544774700164</v>
+        <v>0.02787130929563865</v>
       </c>
       <c r="D70">
-        <v>0.02955236795469453</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02480248962069489</v>
+      </c>
+      <c r="E70">
+        <v>-0.03933360987366034</v>
+      </c>
+      <c r="F70">
+        <v>0.185336170228695</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02913650075525639</v>
+        <v>0.1363995028637637</v>
       </c>
       <c r="C71">
-        <v>0.04888448081659821</v>
+        <v>-0.03546311496163141</v>
       </c>
       <c r="D71">
-        <v>0.1957234962932671</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2727864929811123</v>
+      </c>
+      <c r="E71">
+        <v>-0.09596892163239387</v>
+      </c>
+      <c r="F71">
+        <v>-0.0123029860335291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.04700995797853144</v>
+        <v>0.1418755590991399</v>
       </c>
       <c r="C72">
-        <v>0.1250831063676532</v>
+        <v>-0.02591171899754039</v>
       </c>
       <c r="D72">
-        <v>0.03626376107042086</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0007781980472559105</v>
+      </c>
+      <c r="E72">
+        <v>0.03879365820273797</v>
+      </c>
+      <c r="F72">
+        <v>-0.03292055667582141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.04985000145508568</v>
+        <v>0.2014056070172716</v>
       </c>
       <c r="C73">
-        <v>0.2164705438270887</v>
+        <v>-0.01234393696640059</v>
       </c>
       <c r="D73">
-        <v>0.05288549953098513</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0166081310466544</v>
+      </c>
+      <c r="E73">
+        <v>0.06343133086685951</v>
+      </c>
+      <c r="F73">
+        <v>-0.03794308498474831</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.03110666734579364</v>
+        <v>0.09436381247561483</v>
       </c>
       <c r="C74">
-        <v>0.1174243902224727</v>
+        <v>-0.01326363934538838</v>
       </c>
       <c r="D74">
-        <v>0.02878877364485536</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01691130381012287</v>
+      </c>
+      <c r="E74">
+        <v>0.04381353458868326</v>
+      </c>
+      <c r="F74">
+        <v>-0.0565357299106887</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.05023297659502418</v>
+        <v>0.1279640235038641</v>
       </c>
       <c r="C75">
-        <v>0.1324874171214852</v>
+        <v>-0.02783412351780985</v>
       </c>
       <c r="D75">
-        <v>0.02150716389214297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03006393346615568</v>
+      </c>
+      <c r="E75">
+        <v>0.05827070124504199</v>
+      </c>
+      <c r="F75">
+        <v>-0.01845670857004801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>9.261012879969382e-05</v>
+        <v>0.0001363350551801672</v>
       </c>
       <c r="C76">
-        <v>0.000343265993613872</v>
+        <v>-7.258205025252889e-05</v>
       </c>
       <c r="D76">
-        <v>0.0006223135068856924</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0003515511237350243</v>
+      </c>
+      <c r="E76">
+        <v>-0.0001188653153885279</v>
+      </c>
+      <c r="F76">
+        <v>-0.0002846738212068377</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02991772648995475</v>
+        <v>0.08687703294652037</v>
       </c>
       <c r="C77">
-        <v>0.09598805557905604</v>
+        <v>-0.008020434269355779</v>
       </c>
       <c r="D77">
-        <v>-0.06281644344153679</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1132761524740747</v>
+      </c>
+      <c r="E77">
+        <v>0.0393351449683329</v>
+      </c>
+      <c r="F77">
+        <v>-0.03300094671778556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.06733171879665141</v>
+        <v>0.1007598990773989</v>
       </c>
       <c r="C78">
-        <v>0.1368240277851682</v>
+        <v>-0.03936800764151752</v>
       </c>
       <c r="D78">
-        <v>0.009095186746041128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1158622737851826</v>
+      </c>
+      <c r="E78">
+        <v>0.07368334360605214</v>
+      </c>
+      <c r="F78">
+        <v>-0.04551941415687844</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.04624842465984436</v>
+        <v>0.1644108826113659</v>
       </c>
       <c r="C79">
-        <v>0.1401740676733194</v>
+        <v>-0.02226074622978977</v>
       </c>
       <c r="D79">
-        <v>0.02331501104357316</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01503216524320235</v>
+      </c>
+      <c r="E79">
+        <v>0.04632311442181668</v>
+      </c>
+      <c r="F79">
+        <v>-0.0107984062450997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.01607120420491151</v>
+        <v>0.08287625522936819</v>
       </c>
       <c r="C80">
-        <v>0.08428638725266306</v>
+        <v>0.0007700860531241946</v>
       </c>
       <c r="D80">
-        <v>-0.000616427572846364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05580407754030334</v>
+      </c>
+      <c r="E80">
+        <v>0.0366208085452421</v>
+      </c>
+      <c r="F80">
+        <v>0.02378530643196206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.05255268670072669</v>
+        <v>0.1214414435581191</v>
       </c>
       <c r="C81">
-        <v>0.1386358099229939</v>
+        <v>-0.03173276463803482</v>
       </c>
       <c r="D81">
-        <v>0.01611699935102482</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01509199412301369</v>
+      </c>
+      <c r="E81">
+        <v>0.05727962650682604</v>
+      </c>
+      <c r="F81">
+        <v>-0.01643566540472612</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.04962087288959965</v>
+        <v>0.1658188522720011</v>
       </c>
       <c r="C82">
-        <v>0.1610390695564814</v>
+        <v>-0.02407436049018203</v>
       </c>
       <c r="D82">
-        <v>0.011886704796597</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004124157019063154</v>
+      </c>
+      <c r="E82">
+        <v>0.02866059335277919</v>
+      </c>
+      <c r="F82">
+        <v>-0.08011410617109462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02048196101128772</v>
+        <v>0.05980483793055073</v>
       </c>
       <c r="C83">
-        <v>0.06608914843250414</v>
+        <v>-0.002851284209066279</v>
       </c>
       <c r="D83">
-        <v>-0.01592285556809699</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05136317208277183</v>
+      </c>
+      <c r="E83">
+        <v>0.005326035892306231</v>
+      </c>
+      <c r="F83">
+        <v>0.03174823580777231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02829139667671391</v>
+        <v>0.05872019287305457</v>
       </c>
       <c r="C84">
-        <v>0.07216434558391678</v>
+        <v>-0.01101816639609537</v>
       </c>
       <c r="D84">
-        <v>-0.0352137631217124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06392697215006074</v>
+      </c>
+      <c r="E84">
+        <v>0.006618416602521161</v>
+      </c>
+      <c r="F84">
+        <v>-0.003773712723265756</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.04854581009522056</v>
+        <v>0.1366225144106757</v>
       </c>
       <c r="C85">
-        <v>0.1218708451625696</v>
+        <v>-0.02759847779372447</v>
       </c>
       <c r="D85">
-        <v>0.01291426002241313</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01027966501286339</v>
+      </c>
+      <c r="E85">
+        <v>0.03827430017346747</v>
+      </c>
+      <c r="F85">
+        <v>-0.04578088499188687</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01476953059688194</v>
+        <v>0.09440937397600381</v>
       </c>
       <c r="C86">
-        <v>0.08567237940453512</v>
+        <v>0.006219005843723925</v>
       </c>
       <c r="D86">
-        <v>0.1479482972171271</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04079256045586981</v>
+      </c>
+      <c r="E86">
+        <v>0.212052386184483</v>
+      </c>
+      <c r="F86">
+        <v>0.9078777413949822</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.04749750760419645</v>
+        <v>0.09710652910668215</v>
       </c>
       <c r="C87">
-        <v>0.1164374049475594</v>
+        <v>-0.01962459255507699</v>
       </c>
       <c r="D87">
-        <v>-0.05942987528044315</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0957922339866651</v>
+      </c>
+      <c r="E87">
+        <v>-0.05106917084829189</v>
+      </c>
+      <c r="F87">
+        <v>-0.05420630531614001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.01724605637159292</v>
+        <v>0.06082690712927083</v>
       </c>
       <c r="C88">
-        <v>0.05839388521543967</v>
+        <v>-0.002224522053835202</v>
       </c>
       <c r="D88">
-        <v>-0.006022582793245543</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04936940471524245</v>
+      </c>
+      <c r="E88">
+        <v>0.0244996862416985</v>
+      </c>
+      <c r="F88">
+        <v>-0.01220499388901199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.01180347861925564</v>
+        <v>0.1336199937643836</v>
       </c>
       <c r="C89">
-        <v>0.06418377483014909</v>
+        <v>-0.01279194031483282</v>
       </c>
       <c r="D89">
-        <v>0.2234265001645651</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2503408198705466</v>
+      </c>
+      <c r="E89">
+        <v>-0.09137566304557528</v>
+      </c>
+      <c r="F89">
+        <v>0.008013962148499636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.02846212440970868</v>
+        <v>0.1509167907162544</v>
       </c>
       <c r="C90">
-        <v>0.05575736192038312</v>
+        <v>-0.03174956255973677</v>
       </c>
       <c r="D90">
-        <v>0.198104006716509</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2697723183885955</v>
+      </c>
+      <c r="E90">
+        <v>-0.1127738372567835</v>
+      </c>
+      <c r="F90">
+        <v>0.001414859280445362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.03251769162657708</v>
+        <v>0.1206467590608518</v>
       </c>
       <c r="C91">
-        <v>0.1055425948659355</v>
+        <v>-0.01886113895172335</v>
       </c>
       <c r="D91">
-        <v>0.03120039456712442</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01331633345899155</v>
+      </c>
+      <c r="E91">
+        <v>0.0563402684579041</v>
+      </c>
+      <c r="F91">
+        <v>0.002593465809626721</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.01542501962914076</v>
+        <v>0.147750076813011</v>
       </c>
       <c r="C92">
-        <v>0.06796187807332993</v>
+        <v>-0.02335064586346538</v>
       </c>
       <c r="D92">
-        <v>0.2235264589146057</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2921593948279769</v>
+      </c>
+      <c r="E92">
+        <v>-0.1014771859479142</v>
+      </c>
+      <c r="F92">
+        <v>0.0129422055531125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.02426099946704762</v>
+        <v>0.1522869346888978</v>
       </c>
       <c r="C93">
-        <v>0.06076733829092425</v>
+        <v>-0.02760615087107054</v>
       </c>
       <c r="D93">
-        <v>0.2188268629665113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2692227576766453</v>
+      </c>
+      <c r="E93">
+        <v>-0.07801575111990079</v>
+      </c>
+      <c r="F93">
+        <v>-0.003453805200107514</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04788376472037482</v>
+        <v>0.1303953108707869</v>
       </c>
       <c r="C94">
-        <v>0.1440650302763656</v>
+        <v>-0.02460280320394585</v>
       </c>
       <c r="D94">
-        <v>0.003765686359928748</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04299550489671435</v>
+      </c>
+      <c r="E94">
+        <v>0.05812078711470817</v>
+      </c>
+      <c r="F94">
+        <v>-0.03587170046745963</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.03365022312102179</v>
+        <v>0.1270634051636463</v>
       </c>
       <c r="C95">
-        <v>0.1329535218010067</v>
+        <v>-0.003764791510675109</v>
       </c>
       <c r="D95">
-        <v>-0.03386892255267663</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09137832147323929</v>
+      </c>
+      <c r="E95">
+        <v>0.04637716123130691</v>
+      </c>
+      <c r="F95">
+        <v>0.008347576648777277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9581857343612142</v>
+        <v>0.1056253061321946</v>
       </c>
       <c r="C96">
-        <v>0.2696748230253729</v>
+        <v>0.9876531532047349</v>
       </c>
       <c r="D96">
-        <v>0.03088404841743545</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0469525894494282</v>
+      </c>
+      <c r="E96">
+        <v>0.05547648126808241</v>
+      </c>
+      <c r="F96">
+        <v>-0.04222416141891265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.02098880145951974</v>
+        <v>0.1923846682463234</v>
       </c>
       <c r="C97">
-        <v>0.160731166592718</v>
+        <v>0.00740815468391028</v>
       </c>
       <c r="D97">
-        <v>0.103470422706312</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01768096611843495</v>
+      </c>
+      <c r="E97">
+        <v>0.01831368206702682</v>
+      </c>
+      <c r="F97">
+        <v>0.0924924054445339</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.03729603753511937</v>
+        <v>0.2045977562992403</v>
       </c>
       <c r="C98">
-        <v>0.1964164694042166</v>
+        <v>-0.006979811149528808</v>
       </c>
       <c r="D98">
-        <v>-0.0007520175851961945</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01399281703827818</v>
+      </c>
+      <c r="E98">
+        <v>-0.08361219277085609</v>
+      </c>
+      <c r="F98">
+        <v>0.09385209829612212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.007428407047500236</v>
+        <v>0.05580632136434192</v>
       </c>
       <c r="C99">
-        <v>0.06141089417849729</v>
+        <v>0.004781026567593608</v>
       </c>
       <c r="D99">
-        <v>0.003440994085625687</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03934150972273908</v>
+      </c>
+      <c r="E99">
+        <v>0.02289292989056736</v>
+      </c>
+      <c r="F99">
+        <v>-0.001414947742318409</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.00214379920307989</v>
+        <v>0.1255239558574614</v>
       </c>
       <c r="C100">
-        <v>0.1533407433543007</v>
+        <v>0.0543254266455586</v>
       </c>
       <c r="D100">
-        <v>-0.734744171557586</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.344309314998852</v>
+      </c>
+      <c r="E100">
+        <v>-0.8892789489596449</v>
+      </c>
+      <c r="F100">
+        <v>0.1406720932420554</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01528762297912281</v>
+        <v>0.02761081764639552</v>
       </c>
       <c r="C101">
-        <v>0.02499426557485775</v>
+        <v>-0.008234642333763814</v>
       </c>
       <c r="D101">
-        <v>0.002683139569034337</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03145041707277135</v>
+      </c>
+      <c r="E101">
+        <v>0.0105135607274779</v>
+      </c>
+      <c r="F101">
+        <v>0.01301565094581241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
